--- a/biology/Médecine/Ibn_Marzouban/Ibn_Marzouban.xlsx
+++ b/biology/Médecine/Ibn_Marzouban/Ibn_Marzouban.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abou Ahmad Abd Rahman ibn Ali ibn Marzuban Tabib Marzubani, dit Ibn Marzuban (persan : ابن مرزبان), était un médecin persan qui a servi les Bouyides. Il était un disciple d'Avicenne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille est originaire d'Ispahan. Cependant, il a vécu à Bagdad et au Khouzestan presque toute sa vie au lieu de sa ville natale.
 Au début de sa vie, il a été formé à la science et au droit religieux. Il est ensuite devenu juge de Chouchtar et chef de l'hôpital al-'Adudi à Bagdad.
